--- a/teaching/traditional_assets/database/data/finland/finland_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.007949999999999999</v>
+        <v>-0.009349999999999999</v>
       </c>
       <c r="E2">
-        <v>-0.01699999999999999</v>
+        <v>-0.0292</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.007850902032674642</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.005939661083177162</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1441.8</v>
+        <v>2726.5</v>
       </c>
       <c r="L2">
-        <v>0.1646379062278759</v>
+        <v>0.3012540743605326</v>
       </c>
       <c r="M2">
-        <v>3086.84</v>
+        <v>58.0484</v>
       </c>
       <c r="N2">
-        <v>0.09338722461895918</v>
+        <v>0.001734968423003237</v>
       </c>
       <c r="O2">
-        <v>2.140962685531974</v>
+        <v>0.02129044562626077</v>
       </c>
       <c r="P2">
-        <v>3080.3</v>
+        <v>46.3484</v>
       </c>
       <c r="Q2">
-        <v>0.09318936776566973</v>
+        <v>0.001385275226478649</v>
       </c>
       <c r="R2">
-        <v>2.136426688861146</v>
+        <v>0.0169992297817715</v>
       </c>
       <c r="S2">
-        <v>6.539999999999964</v>
+        <v>11.7</v>
       </c>
       <c r="T2">
-        <v>0.002118671521685595</v>
+        <v>0.201555942971727</v>
       </c>
       <c r="U2">
-        <v>41346.6</v>
+        <v>63958.4</v>
       </c>
       <c r="V2">
-        <v>1.250872808901743</v>
+        <v>1.911608319709247</v>
       </c>
       <c r="W2">
-        <v>0.06876164278958206</v>
+        <v>0.1034305747368546</v>
       </c>
       <c r="X2">
-        <v>0.1829410642168925</v>
+        <v>0.1691861193663548</v>
       </c>
       <c r="Y2">
-        <v>-0.1141794214273104</v>
+        <v>-0.06575554462950023</v>
       </c>
       <c r="Z2">
-        <v>0.03389556720084311</v>
+        <v>0.03287551113146899</v>
       </c>
       <c r="AA2">
-        <v>0.0005053935136745817</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04525805222731434</v>
+        <v>0.03950298720896973</v>
       </c>
       <c r="AC2">
-        <v>-0.04475265871363976</v>
+        <v>-0.03950298720896973</v>
       </c>
       <c r="AD2">
-        <v>283122.9</v>
+        <v>281067.4</v>
       </c>
       <c r="AE2">
-        <v>1190.867447304724</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>284313.7674473047</v>
+        <v>281067.4</v>
       </c>
       <c r="AG2">
-        <v>242967.1674473047</v>
+        <v>217109</v>
       </c>
       <c r="AH2">
-        <v>0.8958489722013666</v>
+        <v>0.8936241377084768</v>
       </c>
       <c r="AI2">
-        <v>0.8944046475407792</v>
+        <v>0.8793746611230332</v>
       </c>
       <c r="AJ2">
-        <v>0.8802476768168669</v>
+        <v>0.8664711899297154</v>
       </c>
       <c r="AK2">
-        <v>0.8786163144867009</v>
+        <v>0.8491982625599666</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1671.130326997993</v>
-      </c>
-      <c r="AP2">
-        <v>1434.111482984918</v>
       </c>
     </row>
     <row r="3">
@@ -722,7 +716,7 @@
         <v>-0.0404</v>
       </c>
       <c r="E3">
-        <v>-0.167</v>
+        <v>-0.09080000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +725,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.008330022690866407</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.00598574895421825</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1414.2</v>
+        <v>2692.6</v>
       </c>
       <c r="L3">
-        <v>0.1641098243089563</v>
+        <v>0.3029477947794779</v>
       </c>
       <c r="M3">
-        <v>3074.94</v>
+        <v>43.4</v>
       </c>
       <c r="N3">
-        <v>0.0938563344341955</v>
+        <v>0.001313006937154163</v>
       </c>
       <c r="O3">
-        <v>2.174331777683496</v>
+        <v>0.01611825001856941</v>
       </c>
       <c r="P3">
-        <v>3068.4</v>
+        <v>31.7</v>
       </c>
       <c r="Q3">
-        <v>0.09365671414007606</v>
+        <v>0.0009590396292116814</v>
       </c>
       <c r="R3">
-        <v>2.169707254985151</v>
+        <v>0.01177300750204264</v>
       </c>
       <c r="S3">
-        <v>6.539999999999964</v>
+        <v>11.7</v>
       </c>
       <c r="T3">
-        <v>0.0021268707682101</v>
+        <v>0.2695852534562212</v>
       </c>
       <c r="U3">
-        <v>40913.7</v>
+        <v>63300.8</v>
       </c>
       <c r="V3">
-        <v>1.248808077601626</v>
+        <v>1.915078099709868</v>
       </c>
       <c r="W3">
-        <v>0.03730542065541684</v>
+        <v>0.08097923339498654</v>
       </c>
       <c r="X3">
-        <v>0.1965030004476891</v>
+        <v>0.1989051040777692</v>
       </c>
       <c r="Y3">
-        <v>-0.1591975797922723</v>
+        <v>-0.1179258706827827</v>
       </c>
       <c r="Z3">
-        <v>0.03361208634400884</v>
+        <v>0.03251005972004332</v>
       </c>
       <c r="AA3">
-        <v>-0.0002011935106827444</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04288680483019697</v>
+        <v>0.03703177611460236</v>
       </c>
       <c r="AC3">
-        <v>-0.04308799834087971</v>
+        <v>-0.03703177611460236</v>
       </c>
       <c r="AD3">
-        <v>281055.5</v>
+        <v>278885.6</v>
       </c>
       <c r="AE3">
-        <v>1183.415687681361</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>282238.9156876814</v>
+        <v>278885.6</v>
       </c>
       <c r="AG3">
-        <v>241325.2156876813</v>
+        <v>215584.8</v>
       </c>
       <c r="AH3">
-        <v>0.895993384250476</v>
+        <v>0.894037465598297</v>
       </c>
       <c r="AI3">
-        <v>0.8944736363311098</v>
+        <v>0.8794565188941548</v>
       </c>
       <c r="AJ3">
-        <v>0.8804680619217773</v>
+        <v>0.8670605179322447</v>
       </c>
       <c r="AK3">
-        <v>0.8787521562394993</v>
+        <v>0.8493927556188573</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>1704.399636143117</v>
-      </c>
-      <c r="AP3">
-        <v>1463.464012660287</v>
       </c>
     </row>
     <row r="4">
@@ -847,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0245</v>
+        <v>0.0217</v>
       </c>
       <c r="E4">
-        <v>0.133</v>
+        <v>0.03240000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02164034339519473</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01719412341600961</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>27.6</v>
+        <v>33.9</v>
       </c>
       <c r="L4">
-        <v>0.1971428571428571</v>
+        <v>0.2086153846153846</v>
       </c>
       <c r="M4">
-        <v>11.9</v>
+        <v>14.6484</v>
       </c>
       <c r="N4">
-        <v>0.04075342465753425</v>
+        <v>0.03625841584158416</v>
       </c>
       <c r="O4">
-        <v>0.431159420289855</v>
+        <v>0.4321061946902655</v>
       </c>
       <c r="P4">
-        <v>11.9</v>
+        <v>14.6484</v>
       </c>
       <c r="Q4">
-        <v>0.04075342465753425</v>
+        <v>0.03625841584158416</v>
       </c>
       <c r="R4">
-        <v>0.431159420289855</v>
+        <v>0.4321061946902655</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,67 +883,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>432.9</v>
+        <v>657.6</v>
       </c>
       <c r="V4">
-        <v>1.482534246575342</v>
+        <v>1.627722772277228</v>
       </c>
       <c r="W4">
-        <v>0.1002178649237473</v>
+        <v>0.1258819160787226</v>
       </c>
       <c r="X4">
-        <v>0.1693791279860959</v>
+        <v>0.1394671346549404</v>
       </c>
       <c r="Y4">
-        <v>-0.06916126306234863</v>
+        <v>-0.01358521857621778</v>
       </c>
       <c r="Z4">
-        <v>0.07048806785366107</v>
+        <v>0.08535560458031305</v>
       </c>
       <c r="AA4">
-        <v>0.001211980538031908</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04762929962443171</v>
+        <v>0.0419741983033371</v>
       </c>
       <c r="AC4">
-        <v>-0.04641731908639981</v>
+        <v>-0.0419741983033371</v>
       </c>
       <c r="AD4">
-        <v>2067.4</v>
+        <v>2181.8</v>
       </c>
       <c r="AE4">
-        <v>7.451759623363682</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2074.851759623364</v>
+        <v>2181.8</v>
       </c>
       <c r="AG4">
-        <v>1641.951759623364</v>
+        <v>1524.2</v>
       </c>
       <c r="AH4">
-        <v>0.8766293669163016</v>
+        <v>0.8437620852347436</v>
       </c>
       <c r="AI4">
-        <v>0.8851183593833239</v>
+        <v>0.8690352903688361</v>
       </c>
       <c r="AJ4">
-        <v>0.8490138140483572</v>
+        <v>0.7904781661653356</v>
       </c>
       <c r="AK4">
-        <v>0.8590975790373797</v>
+        <v>0.8225580140313007</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>457.3893805309735</v>
-      </c>
-      <c r="AP4">
-        <v>363.2636636334876</v>
       </c>
     </row>
   </sheetData>
